--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_income_index_by_region.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_income_index_by_region.xlsx
@@ -508,9 +508,7 @@
         <v>104.3</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>107.2</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>106.3</v>
       </c>
@@ -526,10 +524,10 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>98.40000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +548,10 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>96</v>
+        <v>92.7</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="5">
@@ -566,9 +564,7 @@
         <v>109.4</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>107.5</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>107.6</v>
       </c>
@@ -584,10 +580,10 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>96.09999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>105</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -600,9 +596,7 @@
         <v>99.7</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>108.9</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>107.5</v>
       </c>
@@ -618,10 +612,10 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>103.7</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="7">
@@ -634,9 +628,7 @@
         <v>102</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>108.9</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>100.3</v>
       </c>
@@ -652,10 +644,10 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="L7" t="n">
         <v>94.40000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>101.4</v>
       </c>
     </row>
     <row r="8">
@@ -668,9 +660,7 @@
         <v>94.8</v>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>95.8</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>110.7</v>
       </c>
@@ -686,10 +676,10 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>105.8</v>
+        <v>104.4</v>
       </c>
       <c r="L8" t="n">
-        <v>98.90000000000001</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="9">
@@ -702,9 +692,7 @@
         <v>98.3</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>105.3</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>104.6</v>
       </c>
@@ -720,10 +708,10 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>97.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="L9" t="n">
-        <v>104.2</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="10">
@@ -736,9 +724,7 @@
         <v>107.4</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>107.8</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>101.2</v>
       </c>
@@ -754,10 +740,10 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>101.5</v>
+        <v>97</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -778,10 +764,10 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>99.8</v>
+        <v>91.7</v>
       </c>
       <c r="L11" t="n">
-        <v>101.4</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -794,9 +780,7 @@
         <v>114.9</v>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>112.5</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>106.5</v>
       </c>
@@ -812,10 +796,10 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="L12" t="n">
-        <v>104.7</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="13">
@@ -828,9 +812,7 @@
         <v>107.3</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>112.8</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>112.4</v>
       </c>
@@ -846,10 +828,10 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>100.6</v>
+        <v>102.2</v>
       </c>
       <c r="L13" t="n">
-        <v>101.1</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="14">
@@ -862,9 +844,7 @@
         <v>103.8</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>102</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>101.7</v>
       </c>
@@ -883,7 +863,7 @@
         <v>98.2</v>
       </c>
       <c r="L14" t="n">
-        <v>97.90000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -896,9 +876,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>102.5</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>107.6</v>
       </c>
@@ -914,10 +892,10 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>91</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="16">
@@ -930,9 +908,7 @@
         <v>105</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>110</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>106.7</v>
       </c>
@@ -948,10 +924,10 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>92.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="L16" t="n">
-        <v>95.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -964,9 +940,7 @@
         <v>109.8</v>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>107.6</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>108.4</v>
       </c>
@@ -982,10 +956,10 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="18">
@@ -998,9 +972,7 @@
         <v>112.7</v>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>105.3</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>102.8</v>
       </c>
@@ -1016,10 +988,10 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L18" t="n">
-        <v>105.3</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="19">
@@ -1040,10 +1012,10 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>103.2</v>
+        <v>113.1</v>
       </c>
       <c r="L19" t="n">
-        <v>105.1</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="20">
@@ -1056,9 +1028,7 @@
         <v>106.9</v>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>108.1</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>103.2</v>
       </c>
@@ -1074,10 +1044,10 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="L20" t="n">
-        <v>103.3</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="21">
@@ -1090,9 +1060,7 @@
         <v>99.7</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>112</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>105.6</v>
       </c>
@@ -1108,10 +1076,10 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>94.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="L21" t="n">
-        <v>104.2</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="22">
@@ -1124,9 +1092,7 @@
         <v>102.6</v>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>105.9</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>104.9</v>
       </c>
@@ -1142,10 +1108,10 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>97.09999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="L22" t="n">
-        <v>103.5</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="23">
@@ -1158,9 +1124,7 @@
         <v>101.2</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>109</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>101.7</v>
       </c>
@@ -1176,10 +1140,10 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>96.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
   </sheetData>
